--- a/example/bv5ela.xlsx
+++ b/example/bv5ela.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\Elastic_MBQC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\Elastic_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51CCBBB4-6DCF-4239-B9B6-6DA3DC69331B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E597A6E-D5E5-442B-97DA-0266A6BC5235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F2867F11-EDD7-4D85-829C-CB71A7543A64}"/>
+    <workbookView xWindow="32220" yWindow="2445" windowWidth="22800" windowHeight="11385" xr2:uid="{F2867F11-EDD7-4D85-829C-CB71A7543A64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="4">
   <si>
     <t>X</t>
   </si>
@@ -54,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +65,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,9 +96,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,26 +414,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A855D09-EF1B-4681-BC4A-65901B49F86B}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -434,252 +444,523 @@
       <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>0</v>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>1</v>
       </c>
-      <c r="K4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
       <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
         <v>1</v>
       </c>
       <c r="K9" t="s">
         <v>1</v>
       </c>
-      <c r="L9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
       <c r="C11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>1</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" t="s">
-        <v>1</v>
-      </c>
-      <c r="L11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
       <c r="E12" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
       <c r="D13" t="s">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
         <v>1</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>1</v>
       </c>
-      <c r="K14" t="s">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
         <v>1</v>
       </c>
     </row>

--- a/example/bv5ela.xlsx
+++ b/example/bv5ela.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\Elastic_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E597A6E-D5E5-442B-97DA-0266A6BC5235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B40F07-81EC-48D8-B959-6D681DDDF8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32220" yWindow="2445" windowWidth="22800" windowHeight="11385" xr2:uid="{F2867F11-EDD7-4D85-829C-CB71A7543A64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F2867F11-EDD7-4D85-829C-CB71A7543A64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="4">
   <si>
     <t>X</t>
   </si>
@@ -414,15 +414,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A855D09-EF1B-4681-BC4A-65901B49F86B}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -444,8 +444,29 @@
       <c r="G1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -458,8 +479,20 @@
       <c r="H2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -475,8 +508,23 @@
       <c r="H3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -492,8 +540,17 @@
       <c r="J4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -515,8 +572,32 @@
       <c r="I5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -529,8 +610,23 @@
       <c r="I6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U6" t="s">
+        <v>1</v>
+      </c>
+      <c r="W6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -555,8 +651,26 @@
       <c r="I7" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U7" t="s">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -569,8 +683,32 @@
       <c r="I8" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -589,8 +727,26 @@
       <c r="K9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -606,8 +762,26 @@
       <c r="K10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V10" t="s">
+        <v>1</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -632,8 +806,14 @@
       <c r="K11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S11" t="s">
+        <v>1</v>
+      </c>
+      <c r="U11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>1</v>
       </c>
@@ -649,8 +829,29 @@
       <c r="K12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>1</v>
       </c>
@@ -669,8 +870,20 @@
       <c r="K13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -687,6 +900,33 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U14" t="s">
+        <v>1</v>
+      </c>
+      <c r="V14" t="s">
+        <v>1</v>
+      </c>
+      <c r="W14" t="s">
         <v>1</v>
       </c>
     </row>

--- a/example/bv5ela.xlsx
+++ b/example/bv5ela.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\Elastic_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B40F07-81EC-48D8-B959-6D681DDDF8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C085DF27-21DB-41D8-993A-6E601C16BE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F2867F11-EDD7-4D85-829C-CB71A7543A64}"/>
+    <workbookView xWindow="4275" yWindow="2865" windowWidth="22800" windowHeight="11385" xr2:uid="{F2867F11-EDD7-4D85-829C-CB71A7543A64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
